--- a/StructureDefinition-flight-details.xlsx
+++ b/StructureDefinition-flight-details.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-05T13:08:56-05:00</t>
+    <t>2023-12-05T18:52:01-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
